--- a/Artefatos/17. Análise dos Eventos opçao2.xlsx
+++ b/Artefatos/17. Análise dos Eventos opçao2.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,9 +191,6 @@
     <t>x(30)</t>
   </si>
   <si>
-    <t>PROCESSO  SELETIVO</t>
-  </si>
-  <si>
     <t>x(31)</t>
   </si>
   <si>
@@ -253,6 +249,9 @@
   </si>
   <si>
     <t>x(33)</t>
+  </si>
+  <si>
+    <t>Processo Seletivo</t>
   </si>
 </sst>
 </file>
@@ -494,125 +493,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,95 +916,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="20"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="23" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="22"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
         <v>14</v>
@@ -1016,19 +1015,19 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4" t="s">
@@ -1039,19 +1038,19 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1062,19 +1061,19 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1085,21 +1084,21 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
@@ -1110,19 +1109,19 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
@@ -1133,23 +1132,23 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="D11" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1160,19 +1159,19 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="4" t="s">
@@ -1183,19 +1182,19 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1206,19 +1205,19 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4" t="s">
@@ -1229,19 +1228,19 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6">
         <v>11</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1252,19 +1251,19 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="D16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1275,21 +1274,21 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="D17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
@@ -1300,19 +1299,19 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="D18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
@@ -1323,19 +1322,19 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
+      <c r="D19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
@@ -1346,46 +1345,46 @@
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+      <c r="D20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>17</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
         <v>14</v>
@@ -1396,19 +1395,19 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="4" t="s">
@@ -1419,19 +1418,19 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1442,19 +1441,19 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1465,19 +1464,19 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="3" t="s">
         <v>43</v>
       </c>
@@ -1488,19 +1487,19 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="4" t="s">
@@ -1511,21 +1510,21 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1">
         <v>23</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="D27" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
@@ -1536,19 +1535,19 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="D28" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
@@ -1559,19 +1558,19 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="D29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
@@ -1582,23 +1581,23 @@
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
@@ -1609,19 +1608,19 @@
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="D31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="3" t="s">
         <v>45</v>
       </c>
@@ -1632,71 +1631,71 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+      <c r="D32" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="1">
         <v>29</v>
       </c>
-      <c r="D33" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+      <c r="D33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
         <v>14</v>
@@ -1707,19 +1706,19 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1">
         <v>31</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4" t="s">
@@ -1730,21 +1729,21 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="4"/>
@@ -1753,21 +1752,21 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1">
         <v>33</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
@@ -1776,65 +1775,65 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>34</v>
       </c>
-      <c r="D38" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
+      <c r="D38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
+      <c r="D39" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1">
         <v>36</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
@@ -1843,17 +1842,17 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="40"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
@@ -1863,6 +1862,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="B34:B37"/>
@@ -1879,54 +1926,6 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
